--- a/results/n_0109_all_15_prod_orig_wt_ending0.xlsx
+++ b/results/n_0109_all_15_prod_orig_wt_ending0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54946824-620D-F54A-AAF7-95D848F38840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E28A65-F51D-4240-9BBA-FCF478771E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
